--- a/Assets/DataProcessing/DataSaved.xlsx
+++ b/Assets/DataProcessing/DataSaved.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,22 +459,28 @@
         <v>14.5335054</v>
       </c>
       <c r="F1" t="n">
+        <v>15.4468927</v>
+      </c>
+      <c r="G1" t="n">
         <v>15.7443438</v>
       </c>
-      <c r="G1" t="n">
+      <c r="H1" t="n">
         <v>17.13754</v>
       </c>
-      <c r="H1" t="n">
+      <c r="I1" t="n">
         <v>18.6043129</v>
       </c>
-      <c r="I1" t="n">
+      <c r="J1" t="n">
         <v>19.21802</v>
       </c>
-      <c r="J1" t="n">
+      <c r="K1" t="n">
         <v>19.8914032</v>
       </c>
-      <c r="K1" t="n">
+      <c r="L1" t="n">
         <v>19.9098587</v>
+      </c>
+      <c r="M1" t="n">
+        <v>20.4353676</v>
       </c>
     </row>
     <row r="2">
@@ -496,22 +502,28 @@
         <v>0.1145038167938931</v>
       </c>
       <c r="F2" t="n">
+        <v>0.07913669064748201</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.1225806451612903</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.1420118343195266</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.08196721311475409</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.08695652173913043</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.1027397260273973</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.07801418439716312</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.06211180124223602</v>
       </c>
     </row>
     <row r="3">
@@ -536,19 +548,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.03550295857988166</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.006211180124223602</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02484472049689441</v>
       </c>
     </row>
     <row r="4">
@@ -606,9 +624,12 @@
         <v>19.5645084</v>
       </c>
       <c r="R4" t="n">
+        <v>20.1052341</v>
+      </c>
+      <c r="S4" t="n">
         <v>22.5771542</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>24.1908169</v>
       </c>
     </row>
@@ -667,9 +688,12 @@
         <v>0.1527777777777778</v>
       </c>
       <c r="R5" t="n">
+        <v>0.09655172413793103</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.07246376811594203</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.03821656050955414</v>
       </c>
     </row>
@@ -728,9 +752,12 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="R6" t="n">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.02173913043478261</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.006369426751592357</v>
       </c>
     </row>
@@ -1014,10 +1041,25 @@
         <v>5.145419</v>
       </c>
       <c r="C16" t="n">
+        <v>7.934679</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.078802</v>
+      </c>
+      <c r="E16" t="n">
         <v>8.412583</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
+        <v>8.561878</v>
+      </c>
+      <c r="G16" t="n">
         <v>8.669781</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.321628</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.5197363</v>
       </c>
     </row>
     <row r="17">
@@ -1030,10 +1072,25 @@
         <v>0.2647058823529412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8169935</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="D17" t="n">
+        <v>0.2389937106918239</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1788079470198675</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.1276595744680851</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.09655172413793103</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04516129032258064</v>
       </c>
     </row>
     <row r="18">
@@ -1046,10 +1103,391 @@
         <v>0.1838235294117647</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7647059</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.006622516556291391</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.02127659574468085</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>dyh_2_WPM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7.913495</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.076733000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.704890000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.989006</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11.1868629</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.465888</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11.68546</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.4029074</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.5237131</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12.9736013</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13.0512857</v>
+      </c>
+      <c r="M19" t="n">
+        <v>13.7118826</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13.8229647</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dyh_2_TER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.07751937984496124</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.05681818181818182</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1103448275862069</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04819277108433735</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07194244604316546</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02097902097902098</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.03424657534246575</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.04458598726114649</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03597122302158273</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dyh_2_NCER</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0272108843537415</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.007751937984496124</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03409090909090909</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05384615384615385</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02758620689655172</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.02515723270440252</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.007142857142857143</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.02547770700636943</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02158273381294964</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dyh_3_WPM</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8.144740000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.308804</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.418733</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.0847836</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.1447105</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11.8776207</v>
+      </c>
+      <c r="H22" t="n">
+        <v>13.2438383</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13.3042622</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13.75616</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13.9995241</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14.0354166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14.0829353</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.250886</v>
+      </c>
+      <c r="O22" t="n">
+        <v>14.6094074</v>
+      </c>
+      <c r="P22" t="n">
+        <v>14.6750641</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>14.9385147</v>
+      </c>
+      <c r="R22" t="n">
+        <v>15.2859211</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15.4416065</v>
+      </c>
+      <c r="T22" t="n">
+        <v>15.5940266</v>
+      </c>
+      <c r="U22" t="n">
+        <v>15.7522936</v>
+      </c>
+      <c r="V22" t="n">
+        <v>15.80845</v>
+      </c>
+      <c r="W22" t="n">
+        <v>15.8194256</v>
+      </c>
+      <c r="X22" t="n">
+        <v>17.005722</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>dyh_3_TER</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.112781954887218</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.07801418439716312</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1265822784810127</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.06535947712418301</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06206896551724138</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02112676056338028</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.08870967741935484</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.09210526315789473</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0472972972972973</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.07333333333333333</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.01935483870967742</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.02027027027027027</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.02112676056338028</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.02068965517241379</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.01438848920863309</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.02758620689655172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dyh_3_NCER</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.03007518796992481</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01418439716312057</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1012658227848101</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.007575757575757576</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02758620689655172</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01408450704225352</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.03947368421052631</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.01935483870967742</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.02112676056338028</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.007194244604316547</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.02758620689655172</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataProcessing/DataSaved.xlsx
+++ b/Assets/DataProcessing/DataSaved.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="M1" t="n">
         <v>20.4353676</v>
       </c>
+      <c r="N1" t="n">
+        <v>21.1726742</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -525,6 +528,9 @@
       <c r="M2" t="n">
         <v>0.06211180124223602</v>
       </c>
+      <c r="N2" t="n">
+        <v>0.06666666666666667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +574,9 @@
       <c r="M3" t="n">
         <v>0.02484472049689441</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -576,60 +585,81 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>10.4186907</v>
+      </c>
+      <c r="C4" t="n">
         <v>12.0410471</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>12.2164669</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.9266758</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.9234266</v>
+      </c>
+      <c r="G4" t="n">
         <v>14.0067444</v>
       </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
         <v>14.4805517</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>15.05729</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>15.0620852</v>
+      </c>
+      <c r="K4" t="n">
         <v>15.1205244</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
+        <v>15.4273157</v>
+      </c>
+      <c r="M4" t="n">
         <v>15.648962</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>15.8977547</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>15.9324179</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>16.5685062</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
         <v>16.7697849</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>16.8413</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>16.9251938</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>17.308094</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>17.3872433</v>
       </c>
-      <c r="P4" t="n">
+      <c r="V4" t="n">
         <v>17.5110664</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="W4" t="n">
         <v>19.5645084</v>
       </c>
-      <c r="R4" t="n">
+      <c r="X4" t="n">
         <v>20.1052341</v>
       </c>
-      <c r="S4" t="n">
+      <c r="Y4" t="n">
+        <v>20.28618</v>
+      </c>
+      <c r="Z4" t="n">
         <v>22.5771542</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AA4" t="n">
         <v>24.1908169</v>
       </c>
     </row>
@@ -640,60 +670,81 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.1161290322580645</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.007194244604316547</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.1582278481012658</v>
       </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
         <v>0.0261437908496732</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>0.09722222222222222</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.08641975308641975</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
+        <v>0.05960264900662252</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.1132075471698113</v>
       </c>
-      <c r="H5" t="n">
+      <c r="N5" t="n">
         <v>0.04848484848484848</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>0.1265822784810127</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
         <v>0.175</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
         <v>0.09815950920245399</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.09848484848484848</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.05590062111801242</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>0.1907894736842105</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>0.0821917808219178</v>
       </c>
-      <c r="P5" t="n">
+      <c r="V5" t="n">
         <v>0.1842105263157895</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="W5" t="n">
         <v>0.1527777777777778</v>
       </c>
-      <c r="R5" t="n">
+      <c r="X5" t="n">
         <v>0.09655172413793103</v>
       </c>
-      <c r="S5" t="n">
+      <c r="Y5" t="n">
+        <v>0.05442176870748299</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.07246376811594203</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AA5" t="n">
         <v>0.03821656050955414</v>
       </c>
     </row>
@@ -704,60 +755,81 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.01935483870967742</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
+        <v>0.007352941176470588</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.02531645569620253</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.006944444444444444</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.006622516556291391</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.01265822784810127</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
         <v>0.05625</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>0.01226993865030675</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.02272727272727273</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.01973684210526316</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.03947368421052631</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="W6" t="n">
         <v>0.04861111111111111</v>
       </c>
-      <c r="R6" t="n">
+      <c r="X6" t="n">
         <v>0.006896551724137931</v>
       </c>
-      <c r="S6" t="n">
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.02173913043478261</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AA6" t="n">
         <v>0.006369426751592357</v>
       </c>
     </row>
@@ -995,498 +1067,420 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>wj_2_WPM</t>
+          <t>dyh_2_WPM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.48535538</v>
+        <v>7.913495</v>
       </c>
       <c r="C13" t="n">
-        <v>8.014047</v>
+        <v>9.076733000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.704890000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.989006</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.1868629</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.465888</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.68546</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.4029074</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.5237131</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.9736013</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13.0512857</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13.7118826</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13.8229647</v>
+      </c>
+      <c r="O13" t="n">
+        <v>14.0913763</v>
+      </c>
+      <c r="P13" t="n">
+        <v>14.7557745</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15.0914669</v>
+      </c>
+      <c r="R13" t="n">
+        <v>15.2553053</v>
+      </c>
+      <c r="S13" t="n">
+        <v>16.8686</v>
+      </c>
+      <c r="T13" t="n">
+        <v>17.13238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>wj_2_TER</t>
+          <t>dyh_2_TER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.178343949044586</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1678321678321678</v>
+        <v>0.07751937984496124</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.05681818181818182</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1103448275862069</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04819277108433735</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.07194244604316546</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02097902097902098</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.03424657534246575</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.04458598726114649</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.03597122302158273</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.05755395683453238</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0718562874251497</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0472972972972973</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0234375</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.006622516556291391</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0273972602739726</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>wj_2_NCER</t>
+          <t>dyh_2_NCER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.007751937984496124</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03409090909090909</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05384615384615385</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02758620689655172</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02515723270440252</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.007142857142857143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.02547770700636943</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.02158273381294964</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01438848920863309</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.03378378378378379</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.006622516556291391</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>wj_3_WPM</t>
+          <t>dyh_3_WPM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.145419</v>
+        <v>8.144740000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>7.934679</v>
+        <v>8.308804</v>
       </c>
       <c r="D16" t="n">
-        <v>8.078802</v>
+        <v>9.418733</v>
       </c>
       <c r="E16" t="n">
-        <v>8.412583</v>
+        <v>11.0847836</v>
       </c>
       <c r="F16" t="n">
-        <v>8.561878</v>
+        <v>11.1447105</v>
       </c>
       <c r="G16" t="n">
-        <v>8.669781</v>
+        <v>11.8776207</v>
       </c>
       <c r="H16" t="n">
-        <v>9.321628</v>
+        <v>13.2438383</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5197363</v>
+        <v>13.3042622</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13.75616</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13.9995241</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14.0354166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14.0829353</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14.250886</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14.6094074</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14.6750641</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14.9385147</v>
+      </c>
+      <c r="R16" t="n">
+        <v>15.2859211</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15.4416065</v>
+      </c>
+      <c r="T16" t="n">
+        <v>15.5940266</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15.7522936</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15.80845</v>
+      </c>
+      <c r="W16" t="n">
+        <v>15.8194256</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17.005722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>wj_3_TER</t>
+          <t>dyh_3_TER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1605839416058394</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2389937106918239</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1788079470198675</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09655172413793103</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04516129032258064</v>
+        <v>0.02112676056338028</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.08870967741935484</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.09210526315789473</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0472972972972973</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.07333333333333333</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.01935483870967742</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02027027027027027</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.02112676056338028</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.02068965517241379</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.01438848920863309</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.02758620689655172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wj_3_NCER</t>
+          <t>dyh_3_NCER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1838235294117647</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006622516556291391</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02127659574468085</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>dyh_2_WPM</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7.913495</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.076733000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9.704890000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.989006</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11.1868629</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11.465888</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11.68546</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12.4029074</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12.5237131</v>
-      </c>
-      <c r="K19" t="n">
-        <v>12.9736013</v>
-      </c>
-      <c r="L19" t="n">
-        <v>13.0512857</v>
-      </c>
-      <c r="M19" t="n">
-        <v>13.7118826</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13.8229647</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dyh_2_TER</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.2108843537414966</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.07751937984496124</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.05681818181818182</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2076923076923077</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1103448275862069</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.04819277108433735</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.07194244604316546</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.02097902097902098</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.04458598726114649</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.03597122302158273</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>dyh_2_NCER</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.0272108843537415</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.007751937984496124</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.03409090909090909</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.05384615384615385</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.02758620689655172</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.006993006993006993</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.02515723270440252</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.02547770700636943</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.02158273381294964</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>dyh_3_WPM</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>8.144740000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8.308804</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.418733</v>
-      </c>
-      <c r="E22" t="n">
-        <v>11.0847836</v>
-      </c>
-      <c r="F22" t="n">
-        <v>11.1447105</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11.8776207</v>
-      </c>
-      <c r="H22" t="n">
-        <v>13.2438383</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13.3042622</v>
-      </c>
-      <c r="J22" t="n">
-        <v>13.75616</v>
-      </c>
-      <c r="K22" t="n">
-        <v>13.9995241</v>
-      </c>
-      <c r="L22" t="n">
-        <v>14.0354166</v>
-      </c>
-      <c r="M22" t="n">
-        <v>14.0829353</v>
-      </c>
-      <c r="N22" t="n">
-        <v>14.250886</v>
-      </c>
-      <c r="O22" t="n">
-        <v>14.6094074</v>
-      </c>
-      <c r="P22" t="n">
-        <v>14.6750641</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>14.9385147</v>
-      </c>
-      <c r="R22" t="n">
-        <v>15.2859211</v>
-      </c>
-      <c r="S22" t="n">
-        <v>15.4416065</v>
-      </c>
-      <c r="T22" t="n">
-        <v>15.5940266</v>
-      </c>
-      <c r="U22" t="n">
-        <v>15.7522936</v>
-      </c>
-      <c r="V22" t="n">
-        <v>15.80845</v>
-      </c>
-      <c r="W22" t="n">
-        <v>15.8194256</v>
-      </c>
-      <c r="X22" t="n">
-        <v>17.005722</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>dyh_3_TER</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.112781954887218</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1265822784810127</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.06535947712418301</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.06206896551724138</v>
-      </c>
-      <c r="I23" t="n">
+        <v>0.01408450704225352</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.03947368421052631</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.01935483870967742</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>0.02112676056338028</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.08870967741935484</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.04705882352941176</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.09210526315789473</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.0472972972972973</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.07333333333333333</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.01935483870967742</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.02027027027027027</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.02112676056338028</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.02068965517241379</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="U18" t="n">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="V18" t="n">
         <v>0.03278688524590164</v>
       </c>
-      <c r="W23" t="n">
-        <v>0.01438848920863309</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.02758620689655172</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>dyh_3_NCER</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.03007518796992481</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.01418439716312057</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1012658227848101</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.007575757575757576</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.02758620689655172</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.01408450704225352</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.01176470588235294</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.03947368421052631</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.01935483870967742</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.02112676056338028</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.006896551724137931</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="W18" t="n">
         <v>0.007194244604316547</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X18" t="n">
         <v>0.02758620689655172</v>
       </c>
     </row>
